--- a/Team-Data/2008-09/12-24-2008-09.xlsx
+++ b/Team-Data/2008-09/12-24-2008-09.xlsx
@@ -811,7 +811,7 @@
         <v>2.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
@@ -841,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -871,7 +871,7 @@
         <v>22</v>
       </c>
       <c r="AX2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
         <v>7</v>
@@ -915,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.929</v>
+        <v>0.931</v>
       </c>
       <c r="H3" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>0.379</v>
+        <v>0.374</v>
       </c>
       <c r="O3" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="P3" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.765</v>
+        <v>0.76</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T3" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="V3" t="n">
         <v>16.3</v>
@@ -975,25 +975,25 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.8</v>
+        <v>102.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
@@ -1023,7 +1023,7 @@
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
@@ -1032,40 +1032,40 @@
         <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU3" t="n">
         <v>6</v>
       </c>
-      <c r="AU3" t="n">
-        <v>5</v>
-      </c>
       <c r="AV3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>1</v>
       </c>
       <c r="BB3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1175,7 +1175,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1187,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1232,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
         <v>20</v>
@@ -1279,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>0.444</v>
+        <v>0.464</v>
       </c>
       <c r="H5" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J5" t="n">
-        <v>84.90000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O5" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.4</v>
+        <v>24.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="V5" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W5" t="n">
         <v>7.8</v>
@@ -1342,22 +1342,22 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-2.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1369,16 +1369,16 @@
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1387,28 +1387,28 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
@@ -1423,16 +1423,16 @@
         <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.889</v>
+        <v>0.857</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.6</v>
+        <v>38.2</v>
       </c>
       <c r="J6" t="n">
-        <v>79.8</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.483</v>
+        <v>0.481</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.343</v>
+        <v>0.339</v>
       </c>
       <c r="O6" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P6" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R6" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
         <v>42.1</v>
       </c>
       <c r="U6" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V6" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.9</v>
+        <v>102.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1554,37 +1554,37 @@
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
         <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
         <v>13</v>
@@ -1593,25 +1593,25 @@
         <v>15</v>
       </c>
       <c r="AV6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BB6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1721,13 +1721,13 @@
         <v>2.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
@@ -1739,7 +1739,7 @@
         <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>14</v>
@@ -1778,13 +1778,13 @@
         <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
         <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
         <v>2</v>
@@ -1793,7 +1793,7 @@
         <v>28</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1903,16 +1903,16 @@
         <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>24</v>
@@ -1933,7 +1933,7 @@
         <v>16</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1972,7 +1972,7 @@
         <v>22</v>
       </c>
       <c r="BA8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -2091,7 +2091,7 @@
         <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -2106,7 +2106,7 @@
         <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
         <v>21</v>
@@ -2115,16 +2115,16 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR9" t="n">
         <v>23</v>
@@ -2282,19 +2282,19 @@
         <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
         <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN10" t="n">
         <v>26</v>
@@ -2315,7 +2315,7 @@
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2449,7 +2449,7 @@
         <v>4.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2470,7 +2470,7 @@
         <v>18</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2500,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>12</v>
@@ -2524,7 +2524,7 @@
         <v>15</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2631,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2655,7 +2655,7 @@
         <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM12" t="n">
         <v>10</v>
@@ -2670,7 +2670,7 @@
         <v>28</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
         <v>6</v>
@@ -2679,10 +2679,10 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
         <v>26</v>
@@ -2813,7 +2813,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2831,7 +2831,7 @@
         <v>18</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2861,10 +2861,10 @@
         <v>17</v>
       </c>
       <c r="AT13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV13" t="n">
         <v>19</v>
@@ -2917,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.821</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J14" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.472</v>
@@ -2944,31 +2944,31 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.369</v>
+        <v>0.376</v>
       </c>
       <c r="O14" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="P14" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R14" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V14" t="n">
         <v>14.2</v>
@@ -2983,19 +2983,19 @@
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.4</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
@@ -3022,28 +3022,28 @@
         <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -3055,13 +3055,13 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3177,7 +3177,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
@@ -3207,7 +3207,7 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
         <v>14</v>
@@ -3216,7 +3216,7 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
@@ -3359,7 +3359,7 @@
         <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3401,7 +3401,7 @@
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
@@ -3425,10 +3425,10 @@
         <v>8</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
@@ -3463,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.483</v>
+        <v>0.467</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3481,73 +3481,73 @@
         <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.334</v>
+        <v>0.337</v>
       </c>
       <c r="O17" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R17" t="n">
         <v>13</v>
       </c>
       <c r="S17" t="n">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
       <c r="T17" t="n">
-        <v>44.1</v>
+        <v>43.7</v>
       </c>
       <c r="U17" t="n">
         <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W17" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
         <v>3.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3562,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
         <v>25</v>
@@ -3586,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
@@ -3598,25 +3598,25 @@
         <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
         <v>16</v>
       </c>
       <c r="BC17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3759,7 +3759,7 @@
         <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ18" t="n">
         <v>18</v>
@@ -3792,7 +3792,7 @@
         <v>23</v>
       </c>
       <c r="BA18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB18" t="n">
         <v>25</v>
@@ -3905,7 +3905,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3926,7 +3926,7 @@
         <v>13</v>
       </c>
       <c r="AK19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
         <v>7</v>
@@ -3935,10 +3935,10 @@
         <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
         <v>7</v>
@@ -3965,7 +3965,7 @@
         <v>25</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -3980,7 +3980,7 @@
         <v>10</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -4105,10 +4105,10 @@
         <v>29</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
@@ -4162,7 +4162,7 @@
         <v>22</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4269,13 +4269,13 @@
         <v>-3.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
@@ -4332,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ21" t="n">
         <v>6</v>
@@ -4451,7 +4451,7 @@
         <v>-9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4481,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>22</v>
@@ -4493,7 +4493,7 @@
         <v>25</v>
       </c>
       <c r="AR22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS22" t="n">
         <v>19</v>
@@ -4508,7 +4508,7 @@
         <v>24</v>
       </c>
       <c r="AW22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX22" t="n">
         <v>23</v>
@@ -4633,10 +4633,10 @@
         <v>6.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4654,7 +4654,7 @@
         <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO23" t="n">
         <v>11</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>10</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4681,7 +4681,7 @@
         <v>4</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
@@ -4815,13 +4815,13 @@
         <v>-1.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF24" t="n">
         <v>18</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>19</v>
       </c>
       <c r="AG24" t="n">
         <v>19</v>
@@ -4848,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>24</v>
@@ -4860,7 +4860,7 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT24" t="n">
         <v>4</v>
@@ -4997,13 +4997,13 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
@@ -5015,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -5024,7 +5024,7 @@
         <v>9</v>
       </c>
       <c r="AM25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN25" t="n">
         <v>2</v>
@@ -5051,7 +5051,7 @@
         <v>12</v>
       </c>
       <c r="AV25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -5063,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5072,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5101,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" t="n">
         <v>18</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>0.643</v>
+        <v>0.621</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
         <v>8.1</v>
       </c>
       <c r="M26" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="O26" t="n">
-        <v>18.6</v>
+        <v>18.2</v>
       </c>
       <c r="P26" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.785</v>
+        <v>0.781</v>
       </c>
       <c r="R26" t="n">
         <v>13.4</v>
       </c>
       <c r="S26" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
         <v>21.1</v>
@@ -5161,46 +5161,46 @@
         <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.1</v>
+        <v>99.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
         <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5212,19 +5212,19 @@
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
         <v>16</v>
@@ -5245,16 +5245,16 @@
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB26" t="n">
         <v>14</v>
       </c>
-      <c r="BA26" t="n">
-        <v>16</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>13</v>
-      </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5361,7 +5361,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5373,7 +5373,7 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>11</v>
@@ -5400,7 +5400,7 @@
         <v>25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
         <v>24</v>
@@ -5430,7 +5430,7 @@
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
         <v>17</v>
@@ -5543,7 +5543,7 @@
         <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5558,7 +5558,7 @@
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
         <v>21</v>
@@ -5597,7 +5597,7 @@
         <v>9</v>
       </c>
       <c r="AV28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5725,7 +5725,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5746,7 +5746,7 @@
         <v>19</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>16</v>
@@ -5755,10 +5755,10 @@
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
         <v>24</v>
@@ -5770,7 +5770,7 @@
         <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>27</v>
@@ -5785,7 +5785,7 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY29" t="n">
         <v>16</v>
@@ -5979,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
         <v>10</v>
@@ -6125,7 +6125,7 @@
         <v>21</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>20</v>
@@ -6140,7 +6140,7 @@
         <v>22</v>
       </c>
       <c r="AU31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV31" t="n">
         <v>10</v>

--- a/Team-Data/2008-09/12-24-2008-09.xlsx
+++ b/Team-Data/2008-09/12-24-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
@@ -774,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -804,7 +871,7 @@
         <v>22</v>
       </c>
       <c r="AX2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.929</v>
+        <v>0.931</v>
       </c>
       <c r="H3" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>0.379</v>
+        <v>0.374</v>
       </c>
       <c r="O3" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="P3" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.765</v>
+        <v>0.76</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T3" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="V3" t="n">
         <v>16.3</v>
@@ -908,25 +975,25 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.8</v>
+        <v>102.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
@@ -956,7 +1023,7 @@
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
@@ -965,40 +1032,40 @@
         <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU3" t="n">
         <v>6</v>
       </c>
-      <c r="AU3" t="n">
-        <v>5</v>
-      </c>
       <c r="AV3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>1</v>
       </c>
       <c r="BB3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1120,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1165,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>0.444</v>
+        <v>0.464</v>
       </c>
       <c r="H5" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J5" t="n">
-        <v>84.90000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O5" t="n">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.4</v>
+        <v>24.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="V5" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W5" t="n">
         <v>7.8</v>
@@ -1275,22 +1342,22 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-2.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1302,16 +1369,16 @@
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1320,28 +1387,28 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
@@ -1356,16 +1423,16 @@
         <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.889</v>
+        <v>0.857</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.6</v>
+        <v>38.2</v>
       </c>
       <c r="J6" t="n">
-        <v>79.8</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.483</v>
+        <v>0.481</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.343</v>
+        <v>0.339</v>
       </c>
       <c r="O6" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P6" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R6" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
         <v>42.1</v>
       </c>
       <c r="U6" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V6" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.9</v>
+        <v>102.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.7</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1487,37 +1554,37 @@
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
         <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
         <v>13</v>
@@ -1526,25 +1593,25 @@
         <v>15</v>
       </c>
       <c r="AV6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BB6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>2.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
@@ -1672,7 +1739,7 @@
         <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>14</v>
@@ -1711,13 +1778,13 @@
         <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
         <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
         <v>2</v>
@@ -1726,7 +1793,7 @@
         <v>28</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>24</v>
@@ -1866,7 +1933,7 @@
         <v>16</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1905,7 +1972,7 @@
         <v>22</v>
       </c>
       <c r="BA8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2091,7 @@
         <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -2039,7 +2106,7 @@
         <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
         <v>21</v>
@@ -2048,16 +2115,16 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR9" t="n">
         <v>23</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -2215,19 +2282,19 @@
         <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
         <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN10" t="n">
         <v>26</v>
@@ -2248,7 +2315,7 @@
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2403,7 +2470,7 @@
         <v>18</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2433,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>12</v>
@@ -2457,7 +2524,7 @@
         <v>15</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2588,7 +2655,7 @@
         <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM12" t="n">
         <v>10</v>
@@ -2603,7 +2670,7 @@
         <v>28</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
         <v>6</v>
@@ -2612,10 +2679,10 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
         <v>26</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2764,7 +2831,7 @@
         <v>18</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2794,10 +2861,10 @@
         <v>17</v>
       </c>
       <c r="AT13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.821</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J14" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.472</v>
@@ -2877,31 +2944,31 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.369</v>
+        <v>0.376</v>
       </c>
       <c r="O14" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="P14" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R14" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V14" t="n">
         <v>14.2</v>
@@ -2916,19 +2983,19 @@
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.4</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2946,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
@@ -2955,28 +3022,28 @@
         <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -2988,13 +3055,13 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
@@ -3140,7 +3207,7 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
         <v>14</v>
@@ -3149,7 +3216,7 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3334,7 +3401,7 @@
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
@@ -3358,10 +3425,10 @@
         <v>8</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.483</v>
+        <v>0.467</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3414,73 +3481,73 @@
         <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.334</v>
+        <v>0.337</v>
       </c>
       <c r="O17" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R17" t="n">
         <v>13</v>
       </c>
       <c r="S17" t="n">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
       <c r="T17" t="n">
-        <v>44.1</v>
+        <v>43.7</v>
       </c>
       <c r="U17" t="n">
         <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W17" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
         <v>3.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
         <v>25</v>
@@ -3519,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
@@ -3531,25 +3598,25 @@
         <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
         <v>16</v>
       </c>
       <c r="BC17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3692,7 +3759,7 @@
         <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ18" t="n">
         <v>18</v>
@@ -3725,7 +3792,7 @@
         <v>23</v>
       </c>
       <c r="BA18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3859,7 +3926,7 @@
         <v>13</v>
       </c>
       <c r="AK19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
         <v>7</v>
@@ -3868,10 +3935,10 @@
         <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
         <v>7</v>
@@ -3898,7 +3965,7 @@
         <v>25</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -3913,7 +3980,7 @@
         <v>10</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -4038,10 +4105,10 @@
         <v>29</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -4053,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
@@ -4095,7 +4162,7 @@
         <v>22</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-3.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4414,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>22</v>
@@ -4426,7 +4493,7 @@
         <v>25</v>
       </c>
       <c r="AR22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS22" t="n">
         <v>19</v>
@@ -4441,7 +4508,7 @@
         <v>24</v>
       </c>
       <c r="AW22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX22" t="n">
         <v>23</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>6.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4587,7 +4654,7 @@
         <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO23" t="n">
         <v>11</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>10</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4614,7 +4681,7 @@
         <v>4</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-1.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF24" t="n">
         <v>18</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>19</v>
       </c>
       <c r="AG24" t="n">
         <v>19</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>24</v>
@@ -4793,7 +4860,7 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT24" t="n">
         <v>4</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
@@ -4948,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -4957,7 +5024,7 @@
         <v>9</v>
       </c>
       <c r="AM25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN25" t="n">
         <v>2</v>
@@ -4984,7 +5051,7 @@
         <v>12</v>
       </c>
       <c r="AV25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -4996,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5005,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" t="n">
         <v>18</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>0.643</v>
+        <v>0.621</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
         <v>8.1</v>
       </c>
       <c r="M26" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="O26" t="n">
-        <v>18.6</v>
+        <v>18.2</v>
       </c>
       <c r="P26" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.785</v>
+        <v>0.781</v>
       </c>
       <c r="R26" t="n">
         <v>13.4</v>
       </c>
       <c r="S26" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
         <v>21.1</v>
@@ -5094,46 +5161,46 @@
         <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.1</v>
+        <v>99.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
         <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5145,19 +5212,19 @@
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
         <v>16</v>
@@ -5178,16 +5245,16 @@
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB26" t="n">
         <v>14</v>
       </c>
-      <c r="BA26" t="n">
-        <v>16</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>13</v>
-      </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5306,7 +5373,7 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>11</v>
@@ -5333,7 +5400,7 @@
         <v>25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
         <v>24</v>
@@ -5363,7 +5430,7 @@
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
         <v>17</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5491,7 +5558,7 @@
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
         <v>21</v>
@@ -5530,7 +5597,7 @@
         <v>9</v>
       </c>
       <c r="AV28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5679,7 +5746,7 @@
         <v>19</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>16</v>
@@ -5688,10 +5755,10 @@
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
         <v>24</v>
@@ -5703,7 +5770,7 @@
         <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>27</v>
@@ -5718,7 +5785,7 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -5912,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6125,7 @@
         <v>21</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>20</v>
@@ -6073,7 +6140,7 @@
         <v>22</v>
       </c>
       <c r="AU31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-24-2008-09</t>
+          <t>2008-12-24</t>
         </is>
       </c>
     </row>
